--- a/FoldertForExcelFiles/datumtesztk.xlsx
+++ b/FoldertForExcelFiles/datumtesztk.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Munka/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasvince/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{960256FE-CFB7-6345-BC35-3B3350922582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C69DFD-14D9-7A4B-BA5F-734E498073F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30600" yWindow="3300" windowWidth="20740" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="párosító" sheetId="1" r:id="rId1"/>
     <sheet name="szövegbehúzás" sheetId="2" r:id="rId2"/>
     <sheet name="feleletválasztó" sheetId="5" r:id="rId3"/>
     <sheet name="igaz-hamis" sheetId="3" r:id="rId4"/>
-    <sheet name="Munka5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -368,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,8 +379,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -736,25 +734,25 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -781,16 +779,16 @@
       <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -811,17 +809,17 @@
       <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
   </sheetData>
@@ -1168,7 +1166,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1286,16 +1284,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B57C9-D57C-477E-91BA-A6385C303CB2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>